--- a/Mif01_2023_creneaux.xlsx
+++ b/Mif01_2023_creneaux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbrandel/Documents/enseignement/projet 23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbrandel/Documents/enseignement/projet 23/projet-transversal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB89CF8-DF12-C145-9635-CC446FA22573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8295751C-7820-4B44-9DD2-3EE6DD6509A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="760" windowWidth="25580" windowHeight="17180" xr2:uid="{20400D48-9B14-684A-9626-AE8773FEFB64}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>Lundi</t>
   </si>
@@ -78,10 +78,22 @@
     <t>Projet transversal 2023 - 2024</t>
   </si>
   <si>
-    <t>Mif10</t>
-  </si>
-  <si>
-    <t>Projet transversal de master informatique - Sylvain Brandel</t>
+    <t>deperet</t>
+  </si>
+  <si>
+    <t>006 (C4)</t>
+  </si>
+  <si>
+    <t>004 (C2)</t>
+  </si>
+  <si>
+    <t>002 (C1)</t>
+  </si>
+  <si>
+    <t>008 (C5)</t>
+  </si>
+  <si>
+    <t>003 (C3)</t>
   </si>
 </sst>
 </file>
@@ -309,6 +321,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,12 +375,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -342,41 +384,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847EDC26-1616-D340-B50B-F294E5D67029}">
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -741,50 +753,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:35" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="29"/>
       <c r="D3" s="3">
         <v>45320</v>
       </c>
@@ -864,10 +876,10 @@
     </row>
     <row r="4" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="29"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -946,479 +958,479 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="23" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="25"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="23" t="s">
+      <c r="AB7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="25"/>
+      <c r="AC7" s="18"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="11"/>
-      <c r="AI7" s="20" t="s">
+      <c r="AI7" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="26"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="26"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="11"/>
-      <c r="AI8" s="21"/>
+      <c r="AI8" s="31"/>
     </row>
-    <row r="9" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="32" t="s">
-        <v>14</v>
+      <c r="J9" s="12"/>
+      <c r="K9" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>14</v>
+      <c r="P9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="R9" s="8"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="W9" s="32" t="s">
-        <v>14</v>
+      <c r="V9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="X9" s="8"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="26"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="19"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="26"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="19"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="11"/>
-      <c r="AI9" s="21"/>
+      <c r="AI9" s="31"/>
     </row>
-    <row r="10" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="26"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="19"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="26"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="19"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="21"/>
+      <c r="AI10" s="31"/>
     </row>
-    <row r="11" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="23" t="s">
+      <c r="V11" s="12"/>
+      <c r="W11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="8"/>
-      <c r="Y11" s="23" t="s">
+      <c r="Y11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="19"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="26"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="19"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="11"/>
-      <c r="AI11" s="21"/>
+      <c r="AI11" s="31"/>
     </row>
-    <row r="12" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="24"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="26"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="19"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="26"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="19"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="11"/>
-      <c r="AI12" s="21"/>
+      <c r="AI12" s="31"/>
     </row>
-    <row r="13" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="23" t="s">
+      <c r="Y13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Z13" s="26"/>
+      <c r="Z13" s="19"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="26"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="21"/>
+      <c r="AI13" s="31"/>
     </row>
-    <row r="14" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>14</v>
+      <c r="K14" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>14</v>
+      <c r="P14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="R14" s="8"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="W14" s="32" t="s">
-        <v>14</v>
+      <c r="V14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="X14" s="8"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="26"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="19"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="26"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="19"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="21"/>
+      <c r="AI14" s="31"/>
     </row>
-    <row r="15" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="26"/>
+      <c r="Z15" s="19"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="26"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="19"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="11"/>
-      <c r="AI15" s="21"/>
+      <c r="AI15" s="31"/>
     </row>
-    <row r="16" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>14</v>
+      <c r="J16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>14</v>
+      <c r="P16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="R16" s="8"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="32" t="s">
-        <v>14</v>
+      <c r="V16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="X16" s="8"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="27"/>
+      <c r="Z16" s="20"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="27"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="20"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="11"/>
-      <c r="AI16" s="22"/>
+      <c r="AI16" s="32"/>
     </row>
     <row r="17" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
     </row>
     <row r="19" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,24 +1438,29 @@
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:35" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:35" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:35" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AB9:AB16"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AI7:AI16"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="G7:G16"/>
+    <mergeCell ref="H7:H16"/>
     <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="A18:AI18"/>
     <mergeCell ref="A15:A16"/>
@@ -1460,19 +1477,6 @@
     <mergeCell ref="T7:T16"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AB9:AB16"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AI7:AI16"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="G7:G16"/>
-    <mergeCell ref="H7:H16"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
